--- a/wang/2020(1).xlsx
+++ b/wang/2020(1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29232.DESKTOP-57FMOT8\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DebtAuctionAnalysis\wang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D979F8B7-BCF0-4E80-BAF2-FB72A420E8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D87EA1F-8E67-42B6-8448-21EB95F3E31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="3105" windowWidth="18855" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>北京市</t>
   </si>
@@ -968,14 +968,23 @@
     <t>医生数(执业医师+执业助理医师)(人)</t>
   </si>
   <si>
-    <t>人口密度</t>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口密度(人／平方公里)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,6 +994,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1013,11 +1030,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1296,14 +1316,20 @@
   <dimension ref="A1:R298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>312</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>297</v>
@@ -1351,7 +1377,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -1407,7 +1433,7 @@
         <v>118541</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -1457,7 +1483,7 @@
         <v>49236</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1513,7 +1539,7 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -1569,7 +1595,7 @@
         <v>24878</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -1625,7 +1651,7 @@
         <v>9764</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -1681,7 +1707,7 @@
         <v>26826</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -1737,7 +1763,7 @@
         <v>22726</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -1793,7 +1819,7 @@
         <v>37020</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -1849,7 +1875,7 @@
         <v>10846</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -1905,7 +1931,7 @@
         <v>11669</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -1961,7 +1987,7 @@
         <v>22647</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -2017,7 +2043,7 @@
         <v>16968</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -2067,7 +2093,7 @@
         <v>13165</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -2123,7 +2149,7 @@
         <v>25498</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -2179,7 +2205,7 @@
         <v>10243</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -2229,7 +2255,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2020</v>
       </c>
@@ -2279,7 +2305,7 @@
         <v>9753</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -2335,7 +2361,7 @@
         <v>6508</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -2388,7 +2414,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -2444,7 +2470,7 @@
         <v>8080</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -2500,7 +2526,7 @@
         <v>13594</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2020</v>
       </c>
@@ -2556,7 +2582,7 @@
         <v>6426</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -2609,7 +2635,7 @@
         <v>12350</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -2659,7 +2685,7 @@
         <v>8040</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2020</v>
       </c>
@@ -2715,7 +2741,7 @@
         <v>11974</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -2771,7 +2797,7 @@
         <v>9658</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2020</v>
       </c>
@@ -2827,7 +2853,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2020</v>
       </c>
@@ -2883,7 +2909,7 @@
         <v>13768</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2020</v>
       </c>
@@ -2939,7 +2965,7 @@
         <v>8581</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2020</v>
       </c>
@@ -2995,7 +3021,7 @@
         <v>6671</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -3051,7 +3077,7 @@
         <v>8260</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2020</v>
       </c>
@@ -3107,7 +3133,7 @@
         <v>5325</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>2020</v>
       </c>
@@ -3157,7 +3183,7 @@
         <v>4690</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>2020</v>
       </c>
@@ -3213,7 +3239,7 @@
         <v>33644</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -3269,7 +3295,7 @@
         <v>23298</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2020</v>
       </c>
@@ -3325,7 +3351,7 @@
         <v>7066</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -3381,7 +3407,7 @@
         <v>5228</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -3437,7 +3463,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -3493,7 +3519,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -3549,7 +3575,7 @@
         <v>6112</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -3605,7 +3631,7 @@
         <v>6284</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -3661,7 +3687,7 @@
         <v>4582</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -3717,7 +3743,7 @@
         <v>5368</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -3773,7 +3799,7 @@
         <v>4238</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -3829,7 +3855,7 @@
         <v>5410</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -3885,7 +3911,7 @@
         <v>8103</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -3935,7 +3961,7 @@
         <v>5261</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>2020</v>
       </c>
@@ -3985,7 +4011,7 @@
         <v>31919</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -4035,7 +4061,7 @@
         <v>14068</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>2020</v>
       </c>
@@ -4091,7 +4117,7 @@
         <v>6040</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>2020</v>
       </c>
@@ -4141,7 +4167,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -4191,7 +4217,7 @@
         <v>6666</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -4247,7 +4273,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>2020</v>
       </c>
@@ -4303,7 +4329,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>2020</v>
       </c>
@@ -4353,7 +4379,7 @@
         <v>5464</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -4409,7 +4435,7 @@
         <v>29854</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>2020</v>
       </c>
@@ -4465,7 +4491,7 @@
         <v>12192</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>2020</v>
       </c>
@@ -4521,7 +4547,7 @@
         <v>4861</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>2020</v>
       </c>
@@ -4577,7 +4603,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -4633,7 +4659,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>2020</v>
       </c>
@@ -4689,7 +4715,7 @@
         <v>9675</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>2020</v>
       </c>
@@ -4745,7 +4771,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>2020</v>
       </c>
@@ -4801,7 +4827,7 @@
         <v>6779</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>2020</v>
       </c>
@@ -4857,7 +4883,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>2020</v>
       </c>
@@ -4913,7 +4939,7 @@
         <v>8179</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>2020</v>
       </c>
@@ -4969,7 +4995,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -5022,7 +5048,7 @@
         <v>11125</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -5072,7 +5098,7 @@
         <v>78364</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>2020</v>
       </c>
@@ -5128,7 +5154,7 @@
         <v>37823</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>2020</v>
       </c>
@@ -5184,7 +5210,7 @@
         <v>25031</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>2020</v>
       </c>
@@ -5240,7 +5266,7 @@
         <v>29840</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -5296,7 +5322,7 @@
         <v>15408</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>2020</v>
       </c>
@@ -5352,7 +5378,7 @@
         <v>37185</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>2020</v>
       </c>
@@ -5408,7 +5434,7 @@
         <v>22375</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>2020</v>
       </c>
@@ -5464,7 +5490,7 @@
         <v>13398</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>2020</v>
       </c>
@@ -5520,7 +5546,7 @@
         <v>14632</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>2020</v>
       </c>
@@ -5576,7 +5602,7 @@
         <v>21167</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>2020</v>
       </c>
@@ -5632,7 +5658,7 @@
         <v>13203</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>2020</v>
       </c>
@@ -5688,7 +5714,7 @@
         <v>8965</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>2020</v>
       </c>
@@ -5744,7 +5770,7 @@
         <v>14029</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>2020</v>
       </c>
@@ -5794,7 +5820,7 @@
         <v>14733</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>2020</v>
       </c>
@@ -5850,7 +5876,7 @@
         <v>51135</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>2020</v>
       </c>
@@ -5906,7 +5932,7 @@
         <v>31891</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>2020</v>
       </c>
@@ -5962,7 +5988,7 @@
         <v>31472</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>2020</v>
       </c>
@@ -6018,7 +6044,7 @@
         <v>15322</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>2020</v>
       </c>
@@ -6074,7 +6100,7 @@
         <v>9851</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>2020</v>
       </c>
@@ -6130,7 +6156,7 @@
         <v>17831</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -6186,7 +6212,7 @@
         <v>19994</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -6242,7 +6268,7 @@
         <v>7532</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -6298,7 +6324,7 @@
         <v>4027</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -6354,7 +6380,7 @@
         <v>20054</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -6404,7 +6430,7 @@
         <v>8569</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -6460,7 +6486,7 @@
         <v>29045</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>2020</v>
       </c>
@@ -6516,7 +6542,7 @@
         <v>10555</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -6572,7 +6598,7 @@
         <v>10191</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>2020</v>
       </c>
@@ -6628,7 +6654,7 @@
         <v>7864</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>2020</v>
       </c>
@@ -6684,7 +6710,7 @@
         <v>5837</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>2020</v>
       </c>
@@ -6740,7 +6766,7 @@
         <v>5642</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>2020</v>
       </c>
@@ -6796,7 +6822,7 @@
         <v>4129</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>2020</v>
       </c>
@@ -6852,7 +6878,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>2020</v>
       </c>
@@ -6908,7 +6934,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>2020</v>
       </c>
@@ -6964,7 +6990,7 @@
         <v>10327</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>2020</v>
       </c>
@@ -7020,7 +7046,7 @@
         <v>19564</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>2020</v>
       </c>
@@ -7076,7 +7102,7 @@
         <v>13324</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>2020</v>
       </c>
@@ -7132,7 +7158,7 @@
         <v>11343</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>2020</v>
       </c>
@@ -7188,7 +7214,7 @@
         <v>11339</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>2020</v>
       </c>
@@ -7244,7 +7270,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>2020</v>
       </c>
@@ -7294,7 +7320,7 @@
         <v>6614</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>2020</v>
       </c>
@@ -7350,7 +7376,7 @@
         <v>25459</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>2020</v>
       </c>
@@ -7406,7 +7432,7 @@
         <v>16121</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>2020</v>
       </c>
@@ -7462,7 +7488,7 @@
         <v>6618</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>2020</v>
       </c>
@@ -7518,7 +7544,7 @@
         <v>6662</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>2020</v>
       </c>
@@ -7574,7 +7600,7 @@
         <v>19635</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>2020</v>
       </c>
@@ -7630,7 +7656,7 @@
         <v>11171</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>2020</v>
       </c>
@@ -7686,7 +7712,7 @@
         <v>6287</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>2020</v>
       </c>
@@ -7742,7 +7768,7 @@
         <v>7470</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>2020</v>
       </c>
@@ -7792,7 +7818,7 @@
         <v>6521</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>2020</v>
       </c>
@@ -7848,7 +7874,7 @@
         <v>17857</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>2020</v>
       </c>
@@ -7904,7 +7930,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>2020</v>
       </c>
@@ -7960,7 +7986,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>2020</v>
       </c>
@@ -8016,7 +8042,7 @@
         <v>11238</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>2020</v>
       </c>
@@ -8072,7 +8098,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>2020</v>
       </c>
@@ -8128,7 +8154,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>2020</v>
       </c>
@@ -8184,7 +8210,7 @@
         <v>18852</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>2020</v>
       </c>
@@ -8240,7 +8266,7 @@
         <v>9223</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>2020</v>
       </c>
@@ -8296,7 +8322,7 @@
         <v>11365</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>2020</v>
       </c>
@@ -8352,7 +8378,7 @@
         <v>9116</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>2020</v>
       </c>
@@ -8402,7 +8428,7 @@
         <v>13121</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>2020</v>
       </c>
@@ -8458,7 +8484,7 @@
         <v>40199</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>2020</v>
       </c>
@@ -8514,7 +8540,7 @@
         <v>39708</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>2020</v>
       </c>
@@ -8570,7 +8596,7 @@
         <v>18154</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>2020</v>
       </c>
@@ -8626,7 +8652,7 @@
         <v>11575</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>2020</v>
       </c>
@@ -8682,7 +8708,7 @@
         <v>8284</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>2020</v>
       </c>
@@ -8738,7 +8764,7 @@
         <v>21640</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>2020</v>
       </c>
@@ -8794,7 +8820,7 @@
         <v>30912</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>2020</v>
       </c>
@@ -8850,7 +8876,7 @@
         <v>26051</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>2020</v>
       </c>
@@ -8906,7 +8932,7 @@
         <v>16035</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>2020</v>
       </c>
@@ -8962,7 +8988,7 @@
         <v>10205</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>2020</v>
       </c>
@@ -9018,7 +9044,7 @@
         <v>8355</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>2020</v>
       </c>
@@ -9074,7 +9100,7 @@
         <v>28928</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>2020</v>
       </c>
@@ -9130,7 +9156,7 @@
         <v>16385</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>2020</v>
       </c>
@@ -9186,7 +9212,7 @@
         <v>17082</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>2020</v>
       </c>
@@ -9242,7 +9268,7 @@
         <v>11799</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>2020</v>
       </c>
@@ -9292,7 +9318,7 @@
         <v>24117</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>2020</v>
       </c>
@@ -9348,7 +9374,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>2020</v>
       </c>
@@ -9398,7 +9424,7 @@
         <v>14025</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>2020</v>
       </c>
@@ -9454,7 +9480,7 @@
         <v>23034</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>2020</v>
       </c>
@@ -9510,7 +9536,7 @@
         <v>13067</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>2020</v>
       </c>
@@ -9566,7 +9592,7 @@
         <v>15488</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>2020</v>
       </c>
@@ -9622,7 +9648,7 @@
         <v>4592</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>2020</v>
       </c>
@@ -9678,7 +9704,7 @@
         <v>18006</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>2020</v>
       </c>
@@ -9734,7 +9760,7 @@
         <v>10024</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>2020</v>
       </c>
@@ -9790,7 +9816,7 @@
         <v>9986</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>2020</v>
       </c>
@@ -9840,7 +9866,7 @@
         <v>11233</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>2020</v>
       </c>
@@ -9896,7 +9922,7 @@
         <v>6286</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>2020</v>
       </c>
@@ -9952,7 +9978,7 @@
         <v>6728</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>2020</v>
       </c>
@@ -10008,7 +10034,7 @@
         <v>23386</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>2020</v>
       </c>
@@ -10064,7 +10090,7 @@
         <v>17050</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>2020</v>
       </c>
@@ -10120,7 +10146,7 @@
         <v>14359</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>2020</v>
       </c>
@@ -10170,7 +10196,7 @@
         <v>19256</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>2020</v>
       </c>
@@ -10220,7 +10246,7 @@
         <v>17669</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>2020</v>
       </c>
@@ -10276,7 +10302,7 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>2020</v>
       </c>
@@ -10332,7 +10358,7 @@
         <v>10655</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>2020</v>
       </c>
@@ -10388,7 +10414,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>2020</v>
       </c>
@@ -10444,7 +10470,7 @@
         <v>10813</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>2020</v>
       </c>
@@ -10500,7 +10526,7 @@
         <v>11923</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>2020</v>
       </c>
@@ -10556,7 +10582,7 @@
         <v>14258</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>2020</v>
       </c>
@@ -10612,7 +10638,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>2020</v>
       </c>
@@ -10668,7 +10694,7 @@
         <v>7473</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>2020</v>
       </c>
@@ -10724,7 +10750,7 @@
         <v>9981</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>2020</v>
       </c>
@@ -10780,7 +10806,7 @@
         <v>12537</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>2020</v>
       </c>
@@ -10836,7 +10862,7 @@
         <v>7376</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>2020</v>
       </c>
@@ -10886,7 +10912,7 @@
         <v>5602</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>2020</v>
       </c>
@@ -10942,7 +10968,7 @@
         <v>32785</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>2020</v>
       </c>
@@ -10998,7 +11024,7 @@
         <v>11042</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>2020</v>
       </c>
@@ -11054,7 +11080,7 @@
         <v>8368</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>2020</v>
       </c>
@@ -11110,7 +11136,7 @@
         <v>18489</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>2020</v>
       </c>
@@ -11166,7 +11192,7 @@
         <v>16070</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>2020</v>
       </c>
@@ -11222,7 +11248,7 @@
         <v>13704</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>2020</v>
       </c>
@@ -11278,7 +11304,7 @@
         <v>17822</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>2020</v>
       </c>
@@ -11334,7 +11360,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>2020</v>
       </c>
@@ -11390,7 +11416,7 @@
         <v>11100</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>2020</v>
       </c>
@@ -11446,7 +11472,7 @@
         <v>12762</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>2020</v>
       </c>
@@ -11502,7 +11528,7 @@
         <v>14436</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>2020</v>
       </c>
@@ -11558,7 +11584,7 @@
         <v>12968</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>2020</v>
       </c>
@@ -11608,7 +11634,7 @@
         <v>10351</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>2020</v>
       </c>
@@ -11664,7 +11690,7 @@
         <v>62369</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>2020</v>
       </c>
@@ -11714,7 +11740,7 @@
         <v>8022</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>2020</v>
       </c>
@@ -11770,7 +11796,7 @@
         <v>42576</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>2020</v>
       </c>
@@ -11820,7 +11846,7 @@
         <v>8007</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>2020</v>
       </c>
@@ -11870,7 +11896,7 @@
         <v>11538</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>2020</v>
       </c>
@@ -11926,7 +11952,7 @@
         <v>21919</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>2020</v>
       </c>
@@ -11982,7 +12008,7 @@
         <v>11732</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>2020</v>
       </c>
@@ -12038,7 +12064,7 @@
         <v>14204</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>2020</v>
       </c>
@@ -12094,7 +12120,7 @@
         <v>13838</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>2020</v>
       </c>
@@ -12150,7 +12176,7 @@
         <v>8874</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>2020</v>
       </c>
@@ -12206,7 +12232,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>2020</v>
       </c>
@@ -12262,7 +12288,7 @@
         <v>10130</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>2020</v>
       </c>
@@ -12318,7 +12344,7 @@
         <v>4776</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>2020</v>
       </c>
@@ -12374,7 +12400,7 @@
         <v>6873</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>2020</v>
       </c>
@@ -12430,7 +12456,7 @@
         <v>5983</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>2020</v>
       </c>
@@ -12480,7 +12506,7 @@
         <v>9058</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>2020</v>
       </c>
@@ -12530,7 +12556,7 @@
         <v>21812</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>2020</v>
       </c>
@@ -12580,7 +12606,7 @@
         <v>9859</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>2020</v>
       </c>
@@ -12636,7 +12662,7 @@
         <v>4846</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>2020</v>
       </c>
@@ -12686,7 +12712,7 @@
         <v>10757</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>2020</v>
       </c>
@@ -12736,7 +12762,7 @@
         <v>5178</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>2020</v>
       </c>
@@ -12792,7 +12818,7 @@
         <v>28881</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>2020</v>
       </c>
@@ -12848,7 +12874,7 @@
         <v>12546</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>2020</v>
       </c>
@@ -12904,7 +12930,7 @@
         <v>14380</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>2020</v>
       </c>
@@ -12960,7 +12986,7 @@
         <v>6853</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>2020</v>
       </c>
@@ -13013,7 +13039,7 @@
         <v>4443</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>2020</v>
       </c>
@@ -13069,7 +13095,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>2020</v>
       </c>
@@ -13125,7 +13151,7 @@
         <v>6760</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>2020</v>
       </c>
@@ -13178,7 +13204,7 @@
         <v>8545</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>2020</v>
       </c>
@@ -13234,7 +13260,7 @@
         <v>11976</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>2020</v>
       </c>
@@ -13290,7 +13316,7 @@
         <v>7798</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>2020</v>
       </c>
@@ -13346,7 +13372,7 @@
         <v>4463</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>2020</v>
       </c>
@@ -13402,7 +13428,7 @@
         <v>7894</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>2020</v>
       </c>
@@ -13458,7 +13484,7 @@
         <v>4516</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>2020</v>
       </c>
@@ -13508,7 +13534,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>2020</v>
       </c>
@@ -13564,7 +13590,7 @@
         <v>10713</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>2020</v>
       </c>
@@ -13611,7 +13637,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>2020</v>
       </c>
@@ -13631,7 +13657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>2020</v>
       </c>
@@ -13681,7 +13707,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>2020</v>
       </c>
@@ -13728,7 +13754,7 @@
         <v>88706</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>2020</v>
       </c>
@@ -13784,7 +13810,7 @@
         <v>72376</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>2020</v>
       </c>
@@ -13837,7 +13863,7 @@
         <v>7622</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>2020</v>
       </c>
@@ -13890,7 +13916,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>2020</v>
       </c>
@@ -13946,7 +13972,7 @@
         <v>11837</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>2020</v>
       </c>
@@ -14002,7 +14028,7 @@
         <v>9770</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>2020</v>
       </c>
@@ -14055,7 +14081,7 @@
         <v>14082</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>2020</v>
       </c>
@@ -14111,7 +14137,7 @@
         <v>7173</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>2020</v>
       </c>
@@ -14167,7 +14193,7 @@
         <v>8334</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>2020</v>
       </c>
@@ -14223,7 +14249,7 @@
         <v>6430</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>2020</v>
       </c>
@@ -14279,7 +14305,7 @@
         <v>8566</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>2020</v>
       </c>
@@ -14335,7 +14361,7 @@
         <v>14560</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>2020</v>
       </c>
@@ -14391,7 +14417,7 @@
         <v>7062</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>2020</v>
       </c>
@@ -14447,7 +14473,7 @@
         <v>11130</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>2020</v>
       </c>
@@ -14500,7 +14526,7 @@
         <v>5078</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>2020</v>
       </c>
@@ -14553,7 +14579,7 @@
         <v>8313</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>2020</v>
       </c>
@@ -14609,7 +14635,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>2020</v>
       </c>
@@ -14665,7 +14691,7 @@
         <v>7225</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>2020</v>
       </c>
@@ -14715,7 +14741,7 @@
         <v>5948</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>2020</v>
       </c>
@@ -14771,7 +14797,7 @@
         <v>20687</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>2020</v>
       </c>
@@ -14827,7 +14853,7 @@
         <v>6631</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>2020</v>
       </c>
@@ -14883,7 +14909,7 @@
         <v>18081</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>2020</v>
       </c>
@@ -14939,7 +14965,7 @@
         <v>5037</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>2020</v>
       </c>
@@ -14995,7 +15021,7 @@
         <v>16212</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>2020</v>
       </c>
@@ -15045,7 +15071,7 @@
         <v>7863</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>2020</v>
       </c>
@@ -15101,7 +15127,7 @@
         <v>33487</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>2020</v>
       </c>
@@ -15157,7 +15183,7 @@
         <v>11859</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>2020</v>
       </c>
@@ -15213,7 +15239,7 @@
         <v>7029</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>2020</v>
       </c>
@@ -15269,7 +15295,7 @@
         <v>6203</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>2020</v>
       </c>
@@ -15325,7 +15351,7 @@
         <v>9027</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>2020</v>
       </c>
@@ -15381,7 +15407,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>2020</v>
       </c>
@@ -15437,7 +15463,7 @@
         <v>5642</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>2020</v>
       </c>
@@ -15487,7 +15513,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>2020</v>
       </c>
@@ -15543,7 +15569,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>2020</v>
       </c>
@@ -15587,7 +15613,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>2020</v>
       </c>
@@ -15640,7 +15666,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>2020</v>
       </c>
@@ -15693,7 +15719,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>2020</v>
       </c>
@@ -15743,7 +15769,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>2020</v>
       </c>
@@ -15790,7 +15816,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>2020</v>
       </c>
@@ -15846,7 +15872,7 @@
         <v>40714</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>2020</v>
       </c>
@@ -15902,7 +15928,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>2020</v>
       </c>
@@ -15958,7 +15984,7 @@
         <v>10915</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>2020</v>
       </c>
@@ -16014,7 +16040,7 @@
         <v>12706</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>2020</v>
       </c>
@@ -16070,7 +16096,7 @@
         <v>11822</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>2020</v>
       </c>
@@ -16126,7 +16152,7 @@
         <v>5521</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>2020</v>
       </c>
@@ -16182,7 +16208,7 @@
         <v>8118</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>2020</v>
       </c>
@@ -16238,7 +16264,7 @@
         <v>9163</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>2020</v>
       </c>
@@ -16294,7 +16320,7 @@
         <v>6306</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>2020</v>
       </c>
@@ -16344,7 +16370,7 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>2020</v>
       </c>
@@ -16394,7 +16420,7 @@
         <v>14883</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>2020</v>
       </c>
@@ -16450,7 +16476,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>2020</v>
       </c>
@@ -16506,7 +16532,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>2020</v>
       </c>
@@ -16562,7 +16588,7 @@
         <v>3976</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>2020</v>
       </c>
@@ -16618,7 +16644,7 @@
         <v>6586</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>2020</v>
       </c>
@@ -16674,7 +16700,7 @@
         <v>4938</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>2020</v>
       </c>
@@ -16730,7 +16756,7 @@
         <v>3813</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>2020</v>
       </c>
@@ -16786,7 +16812,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>2020</v>
       </c>
@@ -16842,7 +16868,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>2020</v>
       </c>
@@ -16898,7 +16924,7 @@
         <v>5696</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>2020</v>
       </c>
@@ -16951,7 +16977,7 @@
         <v>5948</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>2020</v>
       </c>
@@ -17001,7 +17027,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>2020</v>
       </c>
@@ -17057,7 +17083,7 @@
         <v>10097</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>2020</v>
       </c>
@@ -17104,7 +17130,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>2020</v>
       </c>
@@ -17157,7 +17183,7 @@
         <v>11124</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>2020</v>
       </c>
@@ -17213,7 +17239,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>2020</v>
       </c>
@@ -17269,7 +17295,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>2020</v>
       </c>
@@ -17325,7 +17351,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>2020</v>
       </c>
@@ -17372,7 +17398,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>2020</v>
       </c>
@@ -17428,7 +17454,7 @@
         <v>16817</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>2020</v>
       </c>
@@ -17484,7 +17510,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>2020</v>
       </c>
@@ -17537,7 +17563,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>2020</v>
       </c>
